--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB6CBE-F5C8-8142-BF89-E8B5CBD1C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7042B-5AC7-0340-8C30-02082262E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{08C462FA-11FA-AC4B-BF23-CC2AA7820AD8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{61128410-DD8A-7447-BD9A-C85762F73543}" name="SC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
       <textFields count="11">
         <textField type="text"/>
         <textField/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>METRIC</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Δ/SEM</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,8 +912,8 @@
       <c r="E9" s="10">
         <v>39.381089000000003</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="10">
         <v>35.542309000000003</v>
@@ -1189,8 +1192,8 @@
       <c r="E17" s="9">
         <v>2.8535999999999999E-2</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="9">
         <v>3.1408999999999999E-2</v>

--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EBD707-3860-5545-AC96-21693A88D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDC0BFE-C50E-A744-A0F9-AF34D62C4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{D3DD18E7-423A-F64C-849F-E62716EA309B}"/>
+    <workbookView xWindow="19580" yWindow="8060" windowWidth="28040" windowHeight="17440" xr2:uid="{D3DD18E7-423A-F64C-849F-E62716EA309B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="SC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{1C5041A8-DD93-BE40-A337-E8969ECF82D2}" name="SC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -204,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,16 +212,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +570,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,40 +699,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0.156862</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>0.17921000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>0.14992900000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>0.185863</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>0.14254500000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>0.20849799999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>0.165213</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>0.171876</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>9.9620000000000004E-3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>-1.5014E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>-1.5071270000000001</v>
       </c>
     </row>
@@ -866,344 +890,344 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>46.250948000000001</v>
+        <v>4.0469999999999999E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>39.798617</v>
+        <v>3.4403000000000003E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>48.545639000000001</v>
+        <v>4.6955999999999998E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>39.381089000000003</v>
+        <v>3.4831000000000001E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>4.7232000000000003E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>35.542309000000003</v>
+        <v>3.7658999999999998E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>45.790868000000003</v>
+        <v>4.1161999999999997E-2</v>
       </c>
       <c r="I9" s="4">
-        <v>34.843086999999997</v>
+        <v>4.0374E-2</v>
       </c>
       <c r="J9" s="4">
-        <v>7.2279419999999996</v>
+        <v>2.343E-3</v>
       </c>
       <c r="K9" s="4">
-        <v>11.407861</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="L9" s="4">
-        <v>1.5783</v>
+        <v>4.0973000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0469999999999999E-2</v>
+        <v>0.20640600000000001</v>
       </c>
       <c r="C10" s="4">
-        <v>3.4403000000000003E-2</v>
+        <v>0.20225799999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>4.6955999999999998E-2</v>
+        <v>0.20086499999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>3.4831000000000001E-2</v>
+        <v>0.209979</v>
       </c>
       <c r="F10" s="4">
-        <v>4.7232000000000003E-2</v>
+        <v>0.114995</v>
       </c>
       <c r="G10" s="4">
-        <v>3.7658999999999998E-2</v>
+        <v>0.21107999999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>4.1161999999999997E-2</v>
+        <v>0.20986299999999999</v>
       </c>
       <c r="I10" s="4">
-        <v>4.0374E-2</v>
+        <v>0.19150700000000001</v>
       </c>
       <c r="J10" s="4">
-        <v>2.343E-3</v>
+        <v>1.5403999999999999E-2</v>
       </c>
       <c r="K10" s="4">
-        <v>9.6000000000000002E-5</v>
+        <v>1.4899000000000001E-2</v>
       </c>
       <c r="L10" s="4">
-        <v>4.0973000000000002E-2</v>
+        <v>0.96721599999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>0.20640600000000001</v>
+        <v>1.1755E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.20225799999999999</v>
+        <v>2.3785000000000001E-2</v>
       </c>
       <c r="D11" s="4">
-        <v>0.20086499999999999</v>
+        <v>3.774E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>0.209979</v>
+        <v>3.7977999999999998E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>0.114995</v>
+        <v>-6.3483999999999999E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>0.21107999999999999</v>
+        <v>7.0611999999999994E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>0.20986299999999999</v>
+        <v>2.784E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>0.19150700000000001</v>
+        <v>1.6750999999999999E-2</v>
       </c>
       <c r="J11" s="4">
-        <v>1.5403999999999999E-2</v>
+        <v>1.8376E-2</v>
       </c>
       <c r="K11" s="4">
-        <v>1.4899000000000001E-2</v>
+        <v>-4.9959999999999996E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>0.96721599999999996</v>
+        <v>-0.27187600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4">
-        <v>1.1755E-2</v>
+        <v>0.27477200000000002</v>
       </c>
       <c r="C12" s="4">
-        <v>2.3785000000000001E-2</v>
+        <v>0.26152399999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>3.774E-3</v>
+        <v>0.27546799999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>3.7977999999999998E-2</v>
+        <v>0.26205800000000001</v>
       </c>
       <c r="F12" s="4">
-        <v>-6.3483999999999999E-2</v>
+        <v>0.23622499999999999</v>
       </c>
       <c r="G12" s="4">
-        <v>7.0611999999999994E-2</v>
+        <v>0.25129099999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>2.784E-2</v>
+        <v>0.27232499999999998</v>
       </c>
       <c r="I12" s="4">
-        <v>1.6750999999999999E-2</v>
+        <v>0.25981500000000002</v>
       </c>
       <c r="J12" s="4">
-        <v>1.8376E-2</v>
+        <v>5.8840000000000003E-3</v>
       </c>
       <c r="K12" s="4">
-        <v>-4.9959999999999996E-3</v>
+        <v>1.4957E-2</v>
       </c>
       <c r="L12" s="4">
-        <v>-0.27187600000000001</v>
+        <v>2.5419779999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
-        <v>0.27477200000000002</v>
+        <v>2.5676000000000001E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.26152399999999998</v>
+        <v>3.2826000000000001E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>0.27546799999999999</v>
+        <v>2.2890000000000001E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>0.26205800000000001</v>
+        <v>2.7399E-2</v>
       </c>
       <c r="F13" s="4">
-        <v>0.23622499999999999</v>
+        <v>2.0216999999999999E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>0.25129099999999999</v>
+        <v>3.2757000000000001E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>0.27232499999999998</v>
+        <v>2.2941E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>0.25981500000000002</v>
+        <v>2.6505000000000001E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>5.8840000000000003E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="K13" s="4">
-        <v>1.4957E-2</v>
+        <v>-8.2899999999999998E-4</v>
       </c>
       <c r="L13" s="4">
-        <v>2.5419779999999998</v>
+        <v>-0.37681799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
-        <v>2.5676000000000001E-2</v>
+        <v>2.5836000000000001E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>3.2826000000000001E-2</v>
+        <v>3.4151000000000001E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>2.2890000000000001E-2</v>
+        <v>2.1735000000000001E-2</v>
       </c>
       <c r="E14" s="4">
-        <v>2.7399E-2</v>
+        <v>2.8582E-2</v>
       </c>
       <c r="F14" s="4">
-        <v>2.0216999999999999E-2</v>
+        <v>1.9043999999999998E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>3.2757000000000001E-2</v>
+        <v>3.2532999999999999E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>2.2941E-2</v>
+        <v>2.2935000000000001E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>2.6505000000000001E-2</v>
+        <v>2.6497E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>2.2000000000000001E-3</v>
+        <v>2.5179999999999998E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>-8.2899999999999998E-4</v>
+        <v>-6.6100000000000002E-4</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.37681799999999999</v>
+        <v>-0.26251000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.1689000000000002E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.2502000000000001E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.6421000000000002E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.8535999999999999E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.1408999999999999E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.8174E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.6173999999999999E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5.7169999999999999E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5.5149999999999999E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.96466700000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="6">
         <v>-1.6000000000000001E-4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="6">
         <v>-1.325E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="6">
         <v>1.155E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="6">
         <v>-1.183E-3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="6">
         <v>1.173E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="6">
         <v>2.24E-4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="6">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="6">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="6">
         <v>4.44E-4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="6">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="6">
         <v>-0.37837799999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2.5836000000000001E-2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.4151000000000001E-2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2.1735000000000001E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.8582E-2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1.9043999999999998E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3.2532999999999999E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.2935000000000001E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.6497E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2.5179999999999998E-3</v>
-      </c>
-      <c r="K16" s="4">
-        <v>-6.6100000000000002E-4</v>
-      </c>
-      <c r="L16" s="4">
-        <v>-0.26251000000000002</v>
-      </c>
-    </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3.1689000000000002E-2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2.2502000000000001E-2</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3.6421000000000002E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.8535999999999999E-2</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8">
+        <v>46.250948000000001</v>
+      </c>
+      <c r="C17" s="8">
+        <v>39.798617</v>
+      </c>
+      <c r="D17" s="8">
+        <v>48.545639000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>39.381089000000003</v>
+      </c>
+      <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>3.1408999999999999E-2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3.8174E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2.6173999999999999E-2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5.7169999999999999E-3</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5.5149999999999999E-3</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.96466700000000005</v>
+      <c r="G17" s="8">
+        <v>35.542309000000003</v>
+      </c>
+      <c r="H17" s="8">
+        <v>45.790868000000003</v>
+      </c>
+      <c r="I17" s="8">
+        <v>34.843086999999997</v>
+      </c>
+      <c r="J17" s="8">
+        <v>7.2279419999999996</v>
+      </c>
+      <c r="K17" s="8">
+        <v>11.407861</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1.5783</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">

--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF5642-7799-2F44-A805-05E318A55397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562749FC-99D7-C947-994B-645AD73254DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1500" windowWidth="26460" windowHeight="15940" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
+    <workbookView xWindow="28440" yWindow="12200" windowWidth="26460" windowHeight="15940" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="SC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{422177A7-B697-6342-A68B-1F758D7477D5}" name="SC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
       <textFields count="12">
         <textField type="text"/>
         <textField/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>METRIC</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Re-computed correctly left in blue.</t>
+  </si>
+  <si>
+    <t>Average for bias measures</t>
+  </si>
+  <si>
+    <t>except declination</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -287,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E221A5-A599-4D43-9F75-0ECDB9C2403D}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1884,6 +1893,28 @@
         <v>-1.19746</v>
       </c>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="6">
+        <f>AVERAGE(J7:J12,J14,J17)</f>
+        <v>6.8452385046967774E-3</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <v>3.1613249999999996E-3</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35320544259059561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562749FC-99D7-C947-994B-645AD73254DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23F7BE-D41A-274A-8F6F-351A92CAED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="12200" windowWidth="26460" windowHeight="15940" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
+    <workbookView xWindow="15920" yWindow="10280" windowWidth="26460" windowHeight="15940" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -296,6 +296,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +620,10 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1031,82 +1034,83 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
-        <v>4.0469999999999999E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3.4403000000000003E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4.6955999999999998E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.4831000000000001E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4.7232000000000003E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3.7658999999999998E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>4.1161999999999997E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>4.0374E-2</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2.343E-3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>4.0973000000000002E-2</v>
-      </c>
-      <c r="O11" s="9" t="s">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1.1755E-2</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2.3785000000000001E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3.774E-3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3.7977999999999998E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>-6.3483999999999999E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>7.0611999999999994E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>2.784E-2</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.6750999999999999E-2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1.8376E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>-4.9959999999999996E-3</v>
+      </c>
+      <c r="L11" s="15">
+        <v>-0.27187600000000001</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="O11" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
-        <v>1.1755E-2</v>
+        <v>4.0469999999999999E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>2.3785000000000001E-2</v>
+        <v>3.4403000000000003E-2</v>
       </c>
       <c r="D12" s="8">
-        <v>3.774E-3</v>
+        <v>4.6955999999999998E-2</v>
       </c>
       <c r="E12" s="8">
-        <v>3.7977999999999998E-2</v>
+        <v>3.4831000000000001E-2</v>
       </c>
       <c r="F12" s="8">
-        <v>-6.3483999999999999E-2</v>
+        <v>4.7232000000000003E-2</v>
       </c>
       <c r="G12" s="8">
-        <v>7.0611999999999994E-2</v>
+        <v>3.7658999999999998E-2</v>
       </c>
       <c r="H12" s="8">
-        <v>2.784E-2</v>
+        <v>4.1161999999999997E-2</v>
       </c>
       <c r="I12" s="8">
-        <v>1.6750999999999999E-2</v>
+        <v>4.0374E-2</v>
       </c>
       <c r="J12" s="8">
-        <v>1.8376E-2</v>
+        <v>2.343E-3</v>
       </c>
       <c r="K12" s="8">
-        <v>-4.9959999999999996E-3</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="L12" s="8">
-        <v>-0.27187600000000001</v>
+        <v>4.0973000000000002E-2</v>
       </c>
       <c r="M12" s="9"/>
       <c r="O12" s="9" t="s">
@@ -1902,11 +1906,11 @@
         <v>6.8452385046967774E-3</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:L36" si="0">AVERAGE(K7:K12,K14,K17)</f>
+        <f>AVERAGE(K7:K12,K14,K17)</f>
         <v>3.1613249999999996E-3</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L7:L12,L14,L17)</f>
         <v>0.35320544259059561</v>
       </c>
     </row>

--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23F7BE-D41A-274A-8F6F-351A92CAED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444D2E0-23C2-374D-BD61-F75D755A23D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="10280" windowWidth="26460" windowHeight="15940" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
+    <workbookView xWindow="9100" yWindow="4300" windowWidth="27680" windowHeight="17500" activeTab="4" xr2:uid="{3BE45DEF-2A46-A841-B91F-1937D12162CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Vf" sheetId="2" r:id="rId2"/>
+    <sheet name="Sf" sheetId="3" r:id="rId3"/>
+    <sheet name="Decl" sheetId="4" r:id="rId4"/>
+    <sheet name="Responsiveness" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="SC2022_metrics" localSheetId="0">Sheet1!$A$1:$L$34</definedName>
+    <definedName name="SC2022_metrics" localSheetId="0">All!$A$1:$L$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>METRIC</t>
   </si>
@@ -218,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +245,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -276,11 +295,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -296,9 +450,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,11 +782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E221A5-A599-4D43-9F75-0ECDB9C2403D}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,44 +1197,43 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="6">
         <v>1.1755E-2</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="6">
         <v>2.3785000000000001E-2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="6">
         <v>3.774E-3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="6">
         <v>3.7977999999999998E-2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="6">
         <v>-6.3483999999999999E-2</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="6">
         <v>7.0611999999999994E-2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="6">
         <v>2.784E-2</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="6">
         <v>1.6750999999999999E-2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="6">
         <v>1.8376E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="6">
         <v>-4.9959999999999996E-3</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="6">
         <v>-0.27187600000000001</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="O11" s="13" t="s">
+      <c r="O11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1921,5 +2083,423 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB86037B-AA09-4847-8B81-D4AA3DD0D870}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.4254</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.4375</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K2" s="17">
+        <v>-1E-4</v>
+      </c>
+      <c r="L2" s="18">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8D0F35-67F0-6143-9FFA-BC2D63AFC7B7}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.1792</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.1719</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="17">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="L2" s="18">
+        <v>-1.5071000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6272466-7297-F948-92E7-EE3412281BAA}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17">
+        <v>46.250900000000001</v>
+      </c>
+      <c r="C2" s="17">
+        <v>39.7986</v>
+      </c>
+      <c r="D2" s="17">
+        <v>48.5456</v>
+      </c>
+      <c r="E2" s="17">
+        <v>39.381100000000004</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="17">
+        <v>35.542299999999997</v>
+      </c>
+      <c r="H2" s="17">
+        <v>45.790900000000001</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41.811700000000002</v>
+      </c>
+      <c r="J2" s="17">
+        <v>2.35</v>
+      </c>
+      <c r="K2" s="17">
+        <v>4.4391999999999996</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1.8891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D47F7F-9AB6-8D42-861B-4B6280E4A169}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20">
+        <v>5.0190999999999999</v>
+      </c>
+      <c r="C2" s="20">
+        <v>5.4127000000000001</v>
+      </c>
+      <c r="D2" s="20">
+        <v>4.6924999999999999</v>
+      </c>
+      <c r="E2" s="20">
+        <v>6.0319000000000003</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2.9485999999999999</v>
+      </c>
+      <c r="G2" s="20">
+        <v>7.2492999999999999</v>
+      </c>
+      <c r="H2" s="20">
+        <v>5.3598999999999997</v>
+      </c>
+      <c r="I2" s="20">
+        <v>5.2824999999999998</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="K2" s="20">
+        <v>-0.26329999999999998</v>
+      </c>
+      <c r="L2" s="21">
+        <v>-0.45050000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="23">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.7324999999999999</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.9016999999999999</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.1076</v>
+      </c>
+      <c r="G3" s="23">
+        <v>2.4142999999999999</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1.1391</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1.3018000000000001</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0.3584</v>
+      </c>
+      <c r="K3" s="23">
+        <v>-0.46050000000000002</v>
+      </c>
+      <c r="L3" s="24">
+        <v>-1.2847999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analysis/SC/SC2022-metrics.xlsx
+++ b/analysis/SC/SC2022-metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54EC2D-82EF-B440-B7F1-09CBBD863653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA499BE-EE2D-8E41-91C9-76F406A2FF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{84ECF870-6019-E84B-B81B-916AD2978EA2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="SC2022_metrics" localSheetId="0">All!$A$1:$N$33</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{9DF67FE5-7EA9-8043-930C-FECD42749895}" name="SC2022-metrics" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-metrics.csv" comma="1">
       <textFields count="14">
         <textField type="text"/>
         <textField/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>METRIC</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Average for bias measures</t>
   </si>
 </sst>
 </file>
@@ -709,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C23BC7-615C-D24E-9957-1D27091BE527}">
-  <dimension ref="A1:XFD34"/>
+  <dimension ref="A1:XFA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21154,7 +21157,29 @@
     <row r="14" spans="1:1023 1031:2045 2053:3067 3075:4089 4097:5119 5125:6141 6147:7163 7169:8191 8199:9213 9221:10235 10243:11257 11265:12287 12293:13309 13315:14331 14337:15359 15367:16381" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="F14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="4">
+        <f>AVERAGE(J5:J13)</f>
+        <v>8.7946564486193566E-3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:N14" si="0">AVERAGE(K5:K13)</f>
+        <v>0.18194819747432825</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.892399999999999E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.2524538035826318E-3</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44033728230275176</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="W14" s="7"/>
       <c r="AC14" s="1"/>
@@ -24669,7 +24694,7 @@
       <c r="XEM15" s="1"/>
       <c r="XFA15" s="1"/>
     </row>
-    <row r="16" spans="1:1023 1031:2045 2053:3067 3075:4089 4097:5119 5125:6141 6147:7163 7169:8191 8199:9213 9221:10235 10243:11257 11265:12287 12293:13309 13315:14331 14337:15359 15367:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1023 1031:2045 2053:3067 3075:4089 4097:5119 5125:6141 6147:7163 7169:8191 8199:9213 9221:10235 10243:11257 11265:12287 12293:13309 13315:14331 14337:15359 15367:16381" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -25889,7 +25914,7 @@
       <c r="XEM16" s="1"/>
       <c r="XFA16" s="1"/>
     </row>
-    <row r="17" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="O17" s="1"/>
       <c r="AC17" s="1"/>
@@ -27062,7 +27087,7 @@
       <c r="XEM17" s="1"/>
       <c r="XFA17" s="1"/>
     </row>
-    <row r="18" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -28237,7 +28262,7 @@
       <c r="XEM18" s="1"/>
       <c r="XFA18" s="1"/>
     </row>
-    <row r="19" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -28280,1178 +28305,8 @@
       <c r="N19" s="4">
         <v>-0.450546</v>
       </c>
-      <c r="O19"/>
-      <c r="AC19"/>
-      <c r="AQ19"/>
-      <c r="BE19"/>
-      <c r="BS19"/>
-      <c r="CG19"/>
-      <c r="CU19"/>
-      <c r="DI19"/>
-      <c r="DW19"/>
-      <c r="EK19"/>
-      <c r="EY19"/>
-      <c r="FM19"/>
-      <c r="GA19"/>
-      <c r="GO19"/>
-      <c r="HC19"/>
-      <c r="HQ19"/>
-      <c r="IE19"/>
-      <c r="IS19"/>
-      <c r="JG19"/>
-      <c r="JU19"/>
-      <c r="KI19"/>
-      <c r="KW19"/>
-      <c r="LK19"/>
-      <c r="LY19"/>
-      <c r="MM19"/>
-      <c r="NA19"/>
-      <c r="NO19"/>
-      <c r="OC19"/>
-      <c r="OQ19"/>
-      <c r="PE19"/>
-      <c r="PS19"/>
-      <c r="QG19"/>
-      <c r="QU19"/>
-      <c r="RI19"/>
-      <c r="RW19"/>
-      <c r="SK19"/>
-      <c r="SY19"/>
-      <c r="TM19"/>
-      <c r="UA19"/>
-      <c r="UO19"/>
-      <c r="VC19"/>
-      <c r="VQ19"/>
-      <c r="WE19"/>
-      <c r="WS19"/>
-      <c r="XG19"/>
-      <c r="XU19"/>
-      <c r="YI19"/>
-      <c r="YW19"/>
-      <c r="ZK19"/>
-      <c r="ZY19"/>
-      <c r="AAM19"/>
-      <c r="ABA19"/>
-      <c r="ABO19"/>
-      <c r="ACC19"/>
-      <c r="ACQ19"/>
-      <c r="ADE19"/>
-      <c r="ADS19"/>
-      <c r="AEG19"/>
-      <c r="AEU19"/>
-      <c r="AFI19"/>
-      <c r="AFW19"/>
-      <c r="AGK19"/>
-      <c r="AGY19"/>
-      <c r="AHM19"/>
-      <c r="AIA19"/>
-      <c r="AIO19"/>
-      <c r="AJC19"/>
-      <c r="AJQ19"/>
-      <c r="AKE19"/>
-      <c r="AKS19"/>
-      <c r="ALG19"/>
-      <c r="ALU19"/>
-      <c r="AMI19"/>
-      <c r="AMW19"/>
-      <c r="ANK19"/>
-      <c r="ANY19"/>
-      <c r="AOM19"/>
-      <c r="APA19"/>
-      <c r="APO19"/>
-      <c r="AQC19"/>
-      <c r="AQQ19"/>
-      <c r="ARE19"/>
-      <c r="ARS19"/>
-      <c r="ASG19"/>
-      <c r="ASU19"/>
-      <c r="ATI19"/>
-      <c r="ATW19"/>
-      <c r="AUK19"/>
-      <c r="AUY19"/>
-      <c r="AVM19"/>
-      <c r="AWA19"/>
-      <c r="AWO19"/>
-      <c r="AXC19"/>
-      <c r="AXQ19"/>
-      <c r="AYE19"/>
-      <c r="AYS19"/>
-      <c r="AZG19"/>
-      <c r="AZU19"/>
-      <c r="BAI19"/>
-      <c r="BAW19"/>
-      <c r="BBK19"/>
-      <c r="BBY19"/>
-      <c r="BCM19"/>
-      <c r="BDA19"/>
-      <c r="BDO19"/>
-      <c r="BEC19"/>
-      <c r="BEQ19"/>
-      <c r="BFE19"/>
-      <c r="BFS19"/>
-      <c r="BGG19"/>
-      <c r="BGU19"/>
-      <c r="BHI19"/>
-      <c r="BHW19"/>
-      <c r="BIK19"/>
-      <c r="BIY19"/>
-      <c r="BJM19"/>
-      <c r="BKA19"/>
-      <c r="BKO19"/>
-      <c r="BLC19"/>
-      <c r="BLQ19"/>
-      <c r="BME19"/>
-      <c r="BMS19"/>
-      <c r="BNG19"/>
-      <c r="BNU19"/>
-      <c r="BOI19"/>
-      <c r="BOW19"/>
-      <c r="BPK19"/>
-      <c r="BPY19"/>
-      <c r="BQM19"/>
-      <c r="BRA19"/>
-      <c r="BRO19"/>
-      <c r="BSC19"/>
-      <c r="BSQ19"/>
-      <c r="BTE19"/>
-      <c r="BTS19"/>
-      <c r="BUG19"/>
-      <c r="BUU19"/>
-      <c r="BVI19"/>
-      <c r="BVW19"/>
-      <c r="BWK19"/>
-      <c r="BWY19"/>
-      <c r="BXM19"/>
-      <c r="BYA19"/>
-      <c r="BYO19"/>
-      <c r="BZC19"/>
-      <c r="BZQ19"/>
-      <c r="CAE19"/>
-      <c r="CAS19"/>
-      <c r="CBG19"/>
-      <c r="CBU19"/>
-      <c r="CCI19"/>
-      <c r="CCW19"/>
-      <c r="CDK19"/>
-      <c r="CDY19"/>
-      <c r="CEM19"/>
-      <c r="CFA19"/>
-      <c r="CFO19"/>
-      <c r="CGC19"/>
-      <c r="CGQ19"/>
-      <c r="CHE19"/>
-      <c r="CHS19"/>
-      <c r="CIG19"/>
-      <c r="CIU19"/>
-      <c r="CJI19"/>
-      <c r="CJW19"/>
-      <c r="CKK19"/>
-      <c r="CKY19"/>
-      <c r="CLM19"/>
-      <c r="CMA19"/>
-      <c r="CMO19"/>
-      <c r="CNC19"/>
-      <c r="CNQ19"/>
-      <c r="COE19"/>
-      <c r="COS19"/>
-      <c r="CPG19"/>
-      <c r="CPU19"/>
-      <c r="CQI19"/>
-      <c r="CQW19"/>
-      <c r="CRK19"/>
-      <c r="CRY19"/>
-      <c r="CSM19"/>
-      <c r="CTA19"/>
-      <c r="CTO19"/>
-      <c r="CUC19"/>
-      <c r="CUQ19"/>
-      <c r="CVE19"/>
-      <c r="CVS19"/>
-      <c r="CWG19"/>
-      <c r="CWU19"/>
-      <c r="CXI19"/>
-      <c r="CXW19"/>
-      <c r="CYK19"/>
-      <c r="CYY19"/>
-      <c r="CZM19"/>
-      <c r="DAA19"/>
-      <c r="DAO19"/>
-      <c r="DBC19"/>
-      <c r="DBQ19"/>
-      <c r="DCE19"/>
-      <c r="DCS19"/>
-      <c r="DDG19"/>
-      <c r="DDU19"/>
-      <c r="DEI19"/>
-      <c r="DEW19"/>
-      <c r="DFK19"/>
-      <c r="DFY19"/>
-      <c r="DGM19"/>
-      <c r="DHA19"/>
-      <c r="DHO19"/>
-      <c r="DIC19"/>
-      <c r="DIQ19"/>
-      <c r="DJE19"/>
-      <c r="DJS19"/>
-      <c r="DKG19"/>
-      <c r="DKU19"/>
-      <c r="DLI19"/>
-      <c r="DLW19"/>
-      <c r="DMK19"/>
-      <c r="DMY19"/>
-      <c r="DNM19"/>
-      <c r="DOA19"/>
-      <c r="DOO19"/>
-      <c r="DPC19"/>
-      <c r="DPQ19"/>
-      <c r="DQE19"/>
-      <c r="DQS19"/>
-      <c r="DRG19"/>
-      <c r="DRU19"/>
-      <c r="DSI19"/>
-      <c r="DSW19"/>
-      <c r="DTK19"/>
-      <c r="DTY19"/>
-      <c r="DUM19"/>
-      <c r="DVA19"/>
-      <c r="DVO19"/>
-      <c r="DWC19"/>
-      <c r="DWQ19"/>
-      <c r="DXE19"/>
-      <c r="DXS19"/>
-      <c r="DYG19"/>
-      <c r="DYU19"/>
-      <c r="DZI19"/>
-      <c r="DZW19"/>
-      <c r="EAK19"/>
-      <c r="EAY19"/>
-      <c r="EBM19"/>
-      <c r="ECA19"/>
-      <c r="ECO19"/>
-      <c r="EDC19"/>
-      <c r="EDQ19"/>
-      <c r="EEE19"/>
-      <c r="EES19"/>
-      <c r="EFG19"/>
-      <c r="EFU19"/>
-      <c r="EGI19"/>
-      <c r="EGW19"/>
-      <c r="EHK19"/>
-      <c r="EHY19"/>
-      <c r="EIM19"/>
-      <c r="EJA19"/>
-      <c r="EJO19"/>
-      <c r="EKC19"/>
-      <c r="EKQ19"/>
-      <c r="ELE19"/>
-      <c r="ELS19"/>
-      <c r="EMG19"/>
-      <c r="EMU19"/>
-      <c r="ENI19"/>
-      <c r="ENW19"/>
-      <c r="EOK19"/>
-      <c r="EOY19"/>
-      <c r="EPM19"/>
-      <c r="EQA19"/>
-      <c r="EQO19"/>
-      <c r="ERC19"/>
-      <c r="ERQ19"/>
-      <c r="ESE19"/>
-      <c r="ESS19"/>
-      <c r="ETG19"/>
-      <c r="ETU19"/>
-      <c r="EUI19"/>
-      <c r="EUW19"/>
-      <c r="EVK19"/>
-      <c r="EVY19"/>
-      <c r="EWM19"/>
-      <c r="EXA19"/>
-      <c r="EXO19"/>
-      <c r="EYC19"/>
-      <c r="EYQ19"/>
-      <c r="EZE19"/>
-      <c r="EZS19"/>
-      <c r="FAG19"/>
-      <c r="FAU19"/>
-      <c r="FBI19"/>
-      <c r="FBW19"/>
-      <c r="FCK19"/>
-      <c r="FCY19"/>
-      <c r="FDM19"/>
-      <c r="FEA19"/>
-      <c r="FEO19"/>
-      <c r="FFC19"/>
-      <c r="FFQ19"/>
-      <c r="FGE19"/>
-      <c r="FGS19"/>
-      <c r="FHG19"/>
-      <c r="FHU19"/>
-      <c r="FII19"/>
-      <c r="FIW19"/>
-      <c r="FJK19"/>
-      <c r="FJY19"/>
-      <c r="FKM19"/>
-      <c r="FLA19"/>
-      <c r="FLO19"/>
-      <c r="FMC19"/>
-      <c r="FMQ19"/>
-      <c r="FNE19"/>
-      <c r="FNS19"/>
-      <c r="FOG19"/>
-      <c r="FOU19"/>
-      <c r="FPI19"/>
-      <c r="FPW19"/>
-      <c r="FQK19"/>
-      <c r="FQY19"/>
-      <c r="FRM19"/>
-      <c r="FSA19"/>
-      <c r="FSO19"/>
-      <c r="FTC19"/>
-      <c r="FTQ19"/>
-      <c r="FUE19"/>
-      <c r="FUS19"/>
-      <c r="FVG19"/>
-      <c r="FVU19"/>
-      <c r="FWI19"/>
-      <c r="FWW19"/>
-      <c r="FXK19"/>
-      <c r="FXY19"/>
-      <c r="FYM19"/>
-      <c r="FZA19"/>
-      <c r="FZO19"/>
-      <c r="GAC19"/>
-      <c r="GAQ19"/>
-      <c r="GBE19"/>
-      <c r="GBS19"/>
-      <c r="GCG19"/>
-      <c r="GCU19"/>
-      <c r="GDI19"/>
-      <c r="GDW19"/>
-      <c r="GEK19"/>
-      <c r="GEY19"/>
-      <c r="GFM19"/>
-      <c r="GGA19"/>
-      <c r="GGO19"/>
-      <c r="GHC19"/>
-      <c r="GHQ19"/>
-      <c r="GIE19"/>
-      <c r="GIS19"/>
-      <c r="GJG19"/>
-      <c r="GJU19"/>
-      <c r="GKI19"/>
-      <c r="GKW19"/>
-      <c r="GLK19"/>
-      <c r="GLY19"/>
-      <c r="GMM19"/>
-      <c r="GNA19"/>
-      <c r="GNO19"/>
-      <c r="GOC19"/>
-      <c r="GOQ19"/>
-      <c r="GPE19"/>
-      <c r="GPS19"/>
-      <c r="GQG19"/>
-      <c r="GQU19"/>
-      <c r="GRI19"/>
-      <c r="GRW19"/>
-      <c r="GSK19"/>
-      <c r="GSY19"/>
-      <c r="GTM19"/>
-      <c r="GUA19"/>
-      <c r="GUO19"/>
-      <c r="GVC19"/>
-      <c r="GVQ19"/>
-      <c r="GWE19"/>
-      <c r="GWS19"/>
-      <c r="GXG19"/>
-      <c r="GXU19"/>
-      <c r="GYI19"/>
-      <c r="GYW19"/>
-      <c r="GZK19"/>
-      <c r="GZY19"/>
-      <c r="HAM19"/>
-      <c r="HBA19"/>
-      <c r="HBO19"/>
-      <c r="HCC19"/>
-      <c r="HCQ19"/>
-      <c r="HDE19"/>
-      <c r="HDS19"/>
-      <c r="HEG19"/>
-      <c r="HEU19"/>
-      <c r="HFI19"/>
-      <c r="HFW19"/>
-      <c r="HGK19"/>
-      <c r="HGY19"/>
-      <c r="HHM19"/>
-      <c r="HIA19"/>
-      <c r="HIO19"/>
-      <c r="HJC19"/>
-      <c r="HJQ19"/>
-      <c r="HKE19"/>
-      <c r="HKS19"/>
-      <c r="HLG19"/>
-      <c r="HLU19"/>
-      <c r="HMI19"/>
-      <c r="HMW19"/>
-      <c r="HNK19"/>
-      <c r="HNY19"/>
-      <c r="HOM19"/>
-      <c r="HPA19"/>
-      <c r="HPO19"/>
-      <c r="HQC19"/>
-      <c r="HQQ19"/>
-      <c r="HRE19"/>
-      <c r="HRS19"/>
-      <c r="HSG19"/>
-      <c r="HSU19"/>
-      <c r="HTI19"/>
-      <c r="HTW19"/>
-      <c r="HUK19"/>
-      <c r="HUY19"/>
-      <c r="HVM19"/>
-      <c r="HWA19"/>
-      <c r="HWO19"/>
-      <c r="HXC19"/>
-      <c r="HXQ19"/>
-      <c r="HYE19"/>
-      <c r="HYS19"/>
-      <c r="HZG19"/>
-      <c r="HZU19"/>
-      <c r="IAI19"/>
-      <c r="IAW19"/>
-      <c r="IBK19"/>
-      <c r="IBY19"/>
-      <c r="ICM19"/>
-      <c r="IDA19"/>
-      <c r="IDO19"/>
-      <c r="IEC19"/>
-      <c r="IEQ19"/>
-      <c r="IFE19"/>
-      <c r="IFS19"/>
-      <c r="IGG19"/>
-      <c r="IGU19"/>
-      <c r="IHI19"/>
-      <c r="IHW19"/>
-      <c r="IIK19"/>
-      <c r="IIY19"/>
-      <c r="IJM19"/>
-      <c r="IKA19"/>
-      <c r="IKO19"/>
-      <c r="ILC19"/>
-      <c r="ILQ19"/>
-      <c r="IME19"/>
-      <c r="IMS19"/>
-      <c r="ING19"/>
-      <c r="INU19"/>
-      <c r="IOI19"/>
-      <c r="IOW19"/>
-      <c r="IPK19"/>
-      <c r="IPY19"/>
-      <c r="IQM19"/>
-      <c r="IRA19"/>
-      <c r="IRO19"/>
-      <c r="ISC19"/>
-      <c r="ISQ19"/>
-      <c r="ITE19"/>
-      <c r="ITS19"/>
-      <c r="IUG19"/>
-      <c r="IUU19"/>
-      <c r="IVI19"/>
-      <c r="IVW19"/>
-      <c r="IWK19"/>
-      <c r="IWY19"/>
-      <c r="IXM19"/>
-      <c r="IYA19"/>
-      <c r="IYO19"/>
-      <c r="IZC19"/>
-      <c r="IZQ19"/>
-      <c r="JAE19"/>
-      <c r="JAS19"/>
-      <c r="JBG19"/>
-      <c r="JBU19"/>
-      <c r="JCI19"/>
-      <c r="JCW19"/>
-      <c r="JDK19"/>
-      <c r="JDY19"/>
-      <c r="JEM19"/>
-      <c r="JFA19"/>
-      <c r="JFO19"/>
-      <c r="JGC19"/>
-      <c r="JGQ19"/>
-      <c r="JHE19"/>
-      <c r="JHS19"/>
-      <c r="JIG19"/>
-      <c r="JIU19"/>
-      <c r="JJI19"/>
-      <c r="JJW19"/>
-      <c r="JKK19"/>
-      <c r="JKY19"/>
-      <c r="JLM19"/>
-      <c r="JMA19"/>
-      <c r="JMO19"/>
-      <c r="JNC19"/>
-      <c r="JNQ19"/>
-      <c r="JOE19"/>
-      <c r="JOS19"/>
-      <c r="JPG19"/>
-      <c r="JPU19"/>
-      <c r="JQI19"/>
-      <c r="JQW19"/>
-      <c r="JRK19"/>
-      <c r="JRY19"/>
-      <c r="JSM19"/>
-      <c r="JTA19"/>
-      <c r="JTO19"/>
-      <c r="JUC19"/>
-      <c r="JUQ19"/>
-      <c r="JVE19"/>
-      <c r="JVS19"/>
-      <c r="JWG19"/>
-      <c r="JWU19"/>
-      <c r="JXI19"/>
-      <c r="JXW19"/>
-      <c r="JYK19"/>
-      <c r="JYY19"/>
-      <c r="JZM19"/>
-      <c r="KAA19"/>
-      <c r="KAO19"/>
-      <c r="KBC19"/>
-      <c r="KBQ19"/>
-      <c r="KCE19"/>
-      <c r="KCS19"/>
-      <c r="KDG19"/>
-      <c r="KDU19"/>
-      <c r="KEI19"/>
-      <c r="KEW19"/>
-      <c r="KFK19"/>
-      <c r="KFY19"/>
-      <c r="KGM19"/>
-      <c r="KHA19"/>
-      <c r="KHO19"/>
-      <c r="KIC19"/>
-      <c r="KIQ19"/>
-      <c r="KJE19"/>
-      <c r="KJS19"/>
-      <c r="KKG19"/>
-      <c r="KKU19"/>
-      <c r="KLI19"/>
-      <c r="KLW19"/>
-      <c r="KMK19"/>
-      <c r="KMY19"/>
-      <c r="KNM19"/>
-      <c r="KOA19"/>
-      <c r="KOO19"/>
-      <c r="KPC19"/>
-      <c r="KPQ19"/>
-      <c r="KQE19"/>
-      <c r="KQS19"/>
-      <c r="KRG19"/>
-      <c r="KRU19"/>
-      <c r="KSI19"/>
-      <c r="KSW19"/>
-      <c r="KTK19"/>
-      <c r="KTY19"/>
-      <c r="KUM19"/>
-      <c r="KVA19"/>
-      <c r="KVO19"/>
-      <c r="KWC19"/>
-      <c r="KWQ19"/>
-      <c r="KXE19"/>
-      <c r="KXS19"/>
-      <c r="KYG19"/>
-      <c r="KYU19"/>
-      <c r="KZI19"/>
-      <c r="KZW19"/>
-      <c r="LAK19"/>
-      <c r="LAY19"/>
-      <c r="LBM19"/>
-      <c r="LCA19"/>
-      <c r="LCO19"/>
-      <c r="LDC19"/>
-      <c r="LDQ19"/>
-      <c r="LEE19"/>
-      <c r="LES19"/>
-      <c r="LFG19"/>
-      <c r="LFU19"/>
-      <c r="LGI19"/>
-      <c r="LGW19"/>
-      <c r="LHK19"/>
-      <c r="LHY19"/>
-      <c r="LIM19"/>
-      <c r="LJA19"/>
-      <c r="LJO19"/>
-      <c r="LKC19"/>
-      <c r="LKQ19"/>
-      <c r="LLE19"/>
-      <c r="LLS19"/>
-      <c r="LMG19"/>
-      <c r="LMU19"/>
-      <c r="LNI19"/>
-      <c r="LNW19"/>
-      <c r="LOK19"/>
-      <c r="LOY19"/>
-      <c r="LPM19"/>
-      <c r="LQA19"/>
-      <c r="LQO19"/>
-      <c r="LRC19"/>
-      <c r="LRQ19"/>
-      <c r="LSE19"/>
-      <c r="LSS19"/>
-      <c r="LTG19"/>
-      <c r="LTU19"/>
-      <c r="LUI19"/>
-      <c r="LUW19"/>
-      <c r="LVK19"/>
-      <c r="LVY19"/>
-      <c r="LWM19"/>
-      <c r="LXA19"/>
-      <c r="LXO19"/>
-      <c r="LYC19"/>
-      <c r="LYQ19"/>
-      <c r="LZE19"/>
-      <c r="LZS19"/>
-      <c r="MAG19"/>
-      <c r="MAU19"/>
-      <c r="MBI19"/>
-      <c r="MBW19"/>
-      <c r="MCK19"/>
-      <c r="MCY19"/>
-      <c r="MDM19"/>
-      <c r="MEA19"/>
-      <c r="MEO19"/>
-      <c r="MFC19"/>
-      <c r="MFQ19"/>
-      <c r="MGE19"/>
-      <c r="MGS19"/>
-      <c r="MHG19"/>
-      <c r="MHU19"/>
-      <c r="MII19"/>
-      <c r="MIW19"/>
-      <c r="MJK19"/>
-      <c r="MJY19"/>
-      <c r="MKM19"/>
-      <c r="MLA19"/>
-      <c r="MLO19"/>
-      <c r="MMC19"/>
-      <c r="MMQ19"/>
-      <c r="MNE19"/>
-      <c r="MNS19"/>
-      <c r="MOG19"/>
-      <c r="MOU19"/>
-      <c r="MPI19"/>
-      <c r="MPW19"/>
-      <c r="MQK19"/>
-      <c r="MQY19"/>
-      <c r="MRM19"/>
-      <c r="MSA19"/>
-      <c r="MSO19"/>
-      <c r="MTC19"/>
-      <c r="MTQ19"/>
-      <c r="MUE19"/>
-      <c r="MUS19"/>
-      <c r="MVG19"/>
-      <c r="MVU19"/>
-      <c r="MWI19"/>
-      <c r="MWW19"/>
-      <c r="MXK19"/>
-      <c r="MXY19"/>
-      <c r="MYM19"/>
-      <c r="MZA19"/>
-      <c r="MZO19"/>
-      <c r="NAC19"/>
-      <c r="NAQ19"/>
-      <c r="NBE19"/>
-      <c r="NBS19"/>
-      <c r="NCG19"/>
-      <c r="NCU19"/>
-      <c r="NDI19"/>
-      <c r="NDW19"/>
-      <c r="NEK19"/>
-      <c r="NEY19"/>
-      <c r="NFM19"/>
-      <c r="NGA19"/>
-      <c r="NGO19"/>
-      <c r="NHC19"/>
-      <c r="NHQ19"/>
-      <c r="NIE19"/>
-      <c r="NIS19"/>
-      <c r="NJG19"/>
-      <c r="NJU19"/>
-      <c r="NKI19"/>
-      <c r="NKW19"/>
-      <c r="NLK19"/>
-      <c r="NLY19"/>
-      <c r="NMM19"/>
-      <c r="NNA19"/>
-      <c r="NNO19"/>
-      <c r="NOC19"/>
-      <c r="NOQ19"/>
-      <c r="NPE19"/>
-      <c r="NPS19"/>
-      <c r="NQG19"/>
-      <c r="NQU19"/>
-      <c r="NRI19"/>
-      <c r="NRW19"/>
-      <c r="NSK19"/>
-      <c r="NSY19"/>
-      <c r="NTM19"/>
-      <c r="NUA19"/>
-      <c r="NUO19"/>
-      <c r="NVC19"/>
-      <c r="NVQ19"/>
-      <c r="NWE19"/>
-      <c r="NWS19"/>
-      <c r="NXG19"/>
-      <c r="NXU19"/>
-      <c r="NYI19"/>
-      <c r="NYW19"/>
-      <c r="NZK19"/>
-      <c r="NZY19"/>
-      <c r="OAM19"/>
-      <c r="OBA19"/>
-      <c r="OBO19"/>
-      <c r="OCC19"/>
-      <c r="OCQ19"/>
-      <c r="ODE19"/>
-      <c r="ODS19"/>
-      <c r="OEG19"/>
-      <c r="OEU19"/>
-      <c r="OFI19"/>
-      <c r="OFW19"/>
-      <c r="OGK19"/>
-      <c r="OGY19"/>
-      <c r="OHM19"/>
-      <c r="OIA19"/>
-      <c r="OIO19"/>
-      <c r="OJC19"/>
-      <c r="OJQ19"/>
-      <c r="OKE19"/>
-      <c r="OKS19"/>
-      <c r="OLG19"/>
-      <c r="OLU19"/>
-      <c r="OMI19"/>
-      <c r="OMW19"/>
-      <c r="ONK19"/>
-      <c r="ONY19"/>
-      <c r="OOM19"/>
-      <c r="OPA19"/>
-      <c r="OPO19"/>
-      <c r="OQC19"/>
-      <c r="OQQ19"/>
-      <c r="ORE19"/>
-      <c r="ORS19"/>
-      <c r="OSG19"/>
-      <c r="OSU19"/>
-      <c r="OTI19"/>
-      <c r="OTW19"/>
-      <c r="OUK19"/>
-      <c r="OUY19"/>
-      <c r="OVM19"/>
-      <c r="OWA19"/>
-      <c r="OWO19"/>
-      <c r="OXC19"/>
-      <c r="OXQ19"/>
-      <c r="OYE19"/>
-      <c r="OYS19"/>
-      <c r="OZG19"/>
-      <c r="OZU19"/>
-      <c r="PAI19"/>
-      <c r="PAW19"/>
-      <c r="PBK19"/>
-      <c r="PBY19"/>
-      <c r="PCM19"/>
-      <c r="PDA19"/>
-      <c r="PDO19"/>
-      <c r="PEC19"/>
-      <c r="PEQ19"/>
-      <c r="PFE19"/>
-      <c r="PFS19"/>
-      <c r="PGG19"/>
-      <c r="PGU19"/>
-      <c r="PHI19"/>
-      <c r="PHW19"/>
-      <c r="PIK19"/>
-      <c r="PIY19"/>
-      <c r="PJM19"/>
-      <c r="PKA19"/>
-      <c r="PKO19"/>
-      <c r="PLC19"/>
-      <c r="PLQ19"/>
-      <c r="PME19"/>
-      <c r="PMS19"/>
-      <c r="PNG19"/>
-      <c r="PNU19"/>
-      <c r="POI19"/>
-      <c r="POW19"/>
-      <c r="PPK19"/>
-      <c r="PPY19"/>
-      <c r="PQM19"/>
-      <c r="PRA19"/>
-      <c r="PRO19"/>
-      <c r="PSC19"/>
-      <c r="PSQ19"/>
-      <c r="PTE19"/>
-      <c r="PTS19"/>
-      <c r="PUG19"/>
-      <c r="PUU19"/>
-      <c r="PVI19"/>
-      <c r="PVW19"/>
-      <c r="PWK19"/>
-      <c r="PWY19"/>
-      <c r="PXM19"/>
-      <c r="PYA19"/>
-      <c r="PYO19"/>
-      <c r="PZC19"/>
-      <c r="PZQ19"/>
-      <c r="QAE19"/>
-      <c r="QAS19"/>
-      <c r="QBG19"/>
-      <c r="QBU19"/>
-      <c r="QCI19"/>
-      <c r="QCW19"/>
-      <c r="QDK19"/>
-      <c r="QDY19"/>
-      <c r="QEM19"/>
-      <c r="QFA19"/>
-      <c r="QFO19"/>
-      <c r="QGC19"/>
-      <c r="QGQ19"/>
-      <c r="QHE19"/>
-      <c r="QHS19"/>
-      <c r="QIG19"/>
-      <c r="QIU19"/>
-      <c r="QJI19"/>
-      <c r="QJW19"/>
-      <c r="QKK19"/>
-      <c r="QKY19"/>
-      <c r="QLM19"/>
-      <c r="QMA19"/>
-      <c r="QMO19"/>
-      <c r="QNC19"/>
-      <c r="QNQ19"/>
-      <c r="QOE19"/>
-      <c r="QOS19"/>
-      <c r="QPG19"/>
-      <c r="QPU19"/>
-      <c r="QQI19"/>
-      <c r="QQW19"/>
-      <c r="QRK19"/>
-      <c r="QRY19"/>
-      <c r="QSM19"/>
-      <c r="QTA19"/>
-      <c r="QTO19"/>
-      <c r="QUC19"/>
-      <c r="QUQ19"/>
-      <c r="QVE19"/>
-      <c r="QVS19"/>
-      <c r="QWG19"/>
-      <c r="QWU19"/>
-      <c r="QXI19"/>
-      <c r="QXW19"/>
-      <c r="QYK19"/>
-      <c r="QYY19"/>
-      <c r="QZM19"/>
-      <c r="RAA19"/>
-      <c r="RAO19"/>
-      <c r="RBC19"/>
-      <c r="RBQ19"/>
-      <c r="RCE19"/>
-      <c r="RCS19"/>
-      <c r="RDG19"/>
-      <c r="RDU19"/>
-      <c r="REI19"/>
-      <c r="REW19"/>
-      <c r="RFK19"/>
-      <c r="RFY19"/>
-      <c r="RGM19"/>
-      <c r="RHA19"/>
-      <c r="RHO19"/>
-      <c r="RIC19"/>
-      <c r="RIQ19"/>
-      <c r="RJE19"/>
-      <c r="RJS19"/>
-      <c r="RKG19"/>
-      <c r="RKU19"/>
-      <c r="RLI19"/>
-      <c r="RLW19"/>
-      <c r="RMK19"/>
-      <c r="RMY19"/>
-      <c r="RNM19"/>
-      <c r="ROA19"/>
-      <c r="ROO19"/>
-      <c r="RPC19"/>
-      <c r="RPQ19"/>
-      <c r="RQE19"/>
-      <c r="RQS19"/>
-      <c r="RRG19"/>
-      <c r="RRU19"/>
-      <c r="RSI19"/>
-      <c r="RSW19"/>
-      <c r="RTK19"/>
-      <c r="RTY19"/>
-      <c r="RUM19"/>
-      <c r="RVA19"/>
-      <c r="RVO19"/>
-      <c r="RWC19"/>
-      <c r="RWQ19"/>
-      <c r="RXE19"/>
-      <c r="RXS19"/>
-      <c r="RYG19"/>
-      <c r="RYU19"/>
-      <c r="RZI19"/>
-      <c r="RZW19"/>
-      <c r="SAK19"/>
-      <c r="SAY19"/>
-      <c r="SBM19"/>
-      <c r="SCA19"/>
-      <c r="SCO19"/>
-      <c r="SDC19"/>
-      <c r="SDQ19"/>
-      <c r="SEE19"/>
-      <c r="SES19"/>
-      <c r="SFG19"/>
-      <c r="SFU19"/>
-      <c r="SGI19"/>
-      <c r="SGW19"/>
-      <c r="SHK19"/>
-      <c r="SHY19"/>
-      <c r="SIM19"/>
-      <c r="SJA19"/>
-      <c r="SJO19"/>
-      <c r="SKC19"/>
-      <c r="SKQ19"/>
-      <c r="SLE19"/>
-      <c r="SLS19"/>
-      <c r="SMG19"/>
-      <c r="SMU19"/>
-      <c r="SNI19"/>
-      <c r="SNW19"/>
-      <c r="SOK19"/>
-      <c r="SOY19"/>
-      <c r="SPM19"/>
-      <c r="SQA19"/>
-      <c r="SQO19"/>
-      <c r="SRC19"/>
-      <c r="SRQ19"/>
-      <c r="SSE19"/>
-      <c r="SSS19"/>
-      <c r="STG19"/>
-      <c r="STU19"/>
-      <c r="SUI19"/>
-      <c r="SUW19"/>
-      <c r="SVK19"/>
-      <c r="SVY19"/>
-      <c r="SWM19"/>
-      <c r="SXA19"/>
-      <c r="SXO19"/>
-      <c r="SYC19"/>
-      <c r="SYQ19"/>
-      <c r="SZE19"/>
-      <c r="SZS19"/>
-      <c r="TAG19"/>
-      <c r="TAU19"/>
-      <c r="TBI19"/>
-      <c r="TBW19"/>
-      <c r="TCK19"/>
-      <c r="TCY19"/>
-      <c r="TDM19"/>
-      <c r="TEA19"/>
-      <c r="TEO19"/>
-      <c r="TFC19"/>
-      <c r="TFQ19"/>
-      <c r="TGE19"/>
-      <c r="TGS19"/>
-      <c r="THG19"/>
-      <c r="THU19"/>
-      <c r="TII19"/>
-      <c r="TIW19"/>
-      <c r="TJK19"/>
-      <c r="TJY19"/>
-      <c r="TKM19"/>
-      <c r="TLA19"/>
-      <c r="TLO19"/>
-      <c r="TMC19"/>
-      <c r="TMQ19"/>
-      <c r="TNE19"/>
-      <c r="TNS19"/>
-      <c r="TOG19"/>
-      <c r="TOU19"/>
-      <c r="TPI19"/>
-      <c r="TPW19"/>
-      <c r="TQK19"/>
-      <c r="TQY19"/>
-      <c r="TRM19"/>
-      <c r="TSA19"/>
-      <c r="TSO19"/>
-      <c r="TTC19"/>
-      <c r="TTQ19"/>
-      <c r="TUE19"/>
-      <c r="TUS19"/>
-      <c r="TVG19"/>
-      <c r="TVU19"/>
-      <c r="TWI19"/>
-      <c r="TWW19"/>
-      <c r="TXK19"/>
-      <c r="TXY19"/>
-      <c r="TYM19"/>
-      <c r="TZA19"/>
-      <c r="TZO19"/>
-      <c r="UAC19"/>
-      <c r="UAQ19"/>
-      <c r="UBE19"/>
-      <c r="UBS19"/>
-      <c r="UCG19"/>
-      <c r="UCU19"/>
-      <c r="UDI19"/>
-      <c r="UDW19"/>
-      <c r="UEK19"/>
-      <c r="UEY19"/>
-      <c r="UFM19"/>
-      <c r="UGA19"/>
-      <c r="UGO19"/>
-      <c r="UHC19"/>
-      <c r="UHQ19"/>
-      <c r="UIE19"/>
-      <c r="UIS19"/>
-      <c r="UJG19"/>
-      <c r="UJU19"/>
-      <c r="UKI19"/>
-      <c r="UKW19"/>
-      <c r="ULK19"/>
-      <c r="ULY19"/>
-      <c r="UMM19"/>
-      <c r="UNA19"/>
-      <c r="UNO19"/>
-      <c r="UOC19"/>
-      <c r="UOQ19"/>
-      <c r="UPE19"/>
-      <c r="UPS19"/>
-      <c r="UQG19"/>
-      <c r="UQU19"/>
-      <c r="URI19"/>
-      <c r="URW19"/>
-      <c r="USK19"/>
-      <c r="USY19"/>
-      <c r="UTM19"/>
-      <c r="UUA19"/>
-      <c r="UUO19"/>
-      <c r="UVC19"/>
-      <c r="UVQ19"/>
-      <c r="UWE19"/>
-      <c r="UWS19"/>
-      <c r="UXG19"/>
-      <c r="UXU19"/>
-      <c r="UYI19"/>
-      <c r="UYW19"/>
-      <c r="UZK19"/>
-      <c r="UZY19"/>
-      <c r="VAM19"/>
-      <c r="VBA19"/>
-      <c r="VBO19"/>
-      <c r="VCC19"/>
-      <c r="VCQ19"/>
-      <c r="VDE19"/>
-      <c r="VDS19"/>
-      <c r="VEG19"/>
-      <c r="VEU19"/>
-      <c r="VFI19"/>
-      <c r="VFW19"/>
-      <c r="VGK19"/>
-      <c r="VGY19"/>
-      <c r="VHM19"/>
-      <c r="VIA19"/>
-      <c r="VIO19"/>
-      <c r="VJC19"/>
-      <c r="VJQ19"/>
-      <c r="VKE19"/>
-      <c r="VKS19"/>
-      <c r="VLG19"/>
-      <c r="VLU19"/>
-      <c r="VMI19"/>
-      <c r="VMW19"/>
-      <c r="VNK19"/>
-      <c r="VNY19"/>
-      <c r="VOM19"/>
-      <c r="VPA19"/>
-      <c r="VPO19"/>
-      <c r="VQC19"/>
-      <c r="VQQ19"/>
-      <c r="VRE19"/>
-      <c r="VRS19"/>
-      <c r="VSG19"/>
-      <c r="VSU19"/>
-      <c r="VTI19"/>
-      <c r="VTW19"/>
-      <c r="VUK19"/>
-      <c r="VUY19"/>
-      <c r="VVM19"/>
-      <c r="VWA19"/>
-      <c r="VWO19"/>
-      <c r="VXC19"/>
-      <c r="VXQ19"/>
-      <c r="VYE19"/>
-      <c r="VYS19"/>
-      <c r="VZG19"/>
-      <c r="VZU19"/>
-      <c r="WAI19"/>
-      <c r="WAW19"/>
-      <c r="WBK19"/>
-      <c r="WBY19"/>
-      <c r="WCM19"/>
-      <c r="WDA19"/>
-      <c r="WDO19"/>
-      <c r="WEC19"/>
-      <c r="WEQ19"/>
-      <c r="WFE19"/>
-      <c r="WFS19"/>
-      <c r="WGG19"/>
-      <c r="WGU19"/>
-      <c r="WHI19"/>
-      <c r="WHW19"/>
-      <c r="WIK19"/>
-      <c r="WIY19"/>
-      <c r="WJM19"/>
-      <c r="WKA19"/>
-      <c r="WKO19"/>
-      <c r="WLC19"/>
-      <c r="WLQ19"/>
-      <c r="WME19"/>
-      <c r="WMS19"/>
-      <c r="WNG19"/>
-      <c r="WNU19"/>
-      <c r="WOI19"/>
-      <c r="WOW19"/>
-      <c r="WPK19"/>
-      <c r="WPY19"/>
-      <c r="WQM19"/>
-      <c r="WRA19"/>
-      <c r="WRO19"/>
-      <c r="WSC19"/>
-      <c r="WSQ19"/>
-      <c r="WTE19"/>
-      <c r="WTS19"/>
-      <c r="WUG19"/>
-      <c r="WUU19"/>
-      <c r="WVI19"/>
-      <c r="WVW19"/>
-      <c r="WWK19"/>
-      <c r="WWY19"/>
-      <c r="WXM19"/>
-      <c r="WYA19"/>
-      <c r="WYO19"/>
-      <c r="WZC19"/>
-      <c r="WZQ19"/>
-      <c r="XAE19"/>
-      <c r="XAS19"/>
-      <c r="XBG19"/>
-      <c r="XBU19"/>
-      <c r="XCI19"/>
-      <c r="XCW19"/>
-      <c r="XDK19"/>
-      <c r="XDY19"/>
-      <c r="XEM19"/>
-      <c r="XFA19"/>
     </row>
-    <row r="20" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -29494,1178 +28349,8 @@
       <c r="N20" s="4">
         <v>-1.2848090000000001</v>
       </c>
-      <c r="O20"/>
-      <c r="AC20"/>
-      <c r="AQ20"/>
-      <c r="BE20"/>
-      <c r="BS20"/>
-      <c r="CG20"/>
-      <c r="CU20"/>
-      <c r="DI20"/>
-      <c r="DW20"/>
-      <c r="EK20"/>
-      <c r="EY20"/>
-      <c r="FM20"/>
-      <c r="GA20"/>
-      <c r="GO20"/>
-      <c r="HC20"/>
-      <c r="HQ20"/>
-      <c r="IE20"/>
-      <c r="IS20"/>
-      <c r="JG20"/>
-      <c r="JU20"/>
-      <c r="KI20"/>
-      <c r="KW20"/>
-      <c r="LK20"/>
-      <c r="LY20"/>
-      <c r="MM20"/>
-      <c r="NA20"/>
-      <c r="NO20"/>
-      <c r="OC20"/>
-      <c r="OQ20"/>
-      <c r="PE20"/>
-      <c r="PS20"/>
-      <c r="QG20"/>
-      <c r="QU20"/>
-      <c r="RI20"/>
-      <c r="RW20"/>
-      <c r="SK20"/>
-      <c r="SY20"/>
-      <c r="TM20"/>
-      <c r="UA20"/>
-      <c r="UO20"/>
-      <c r="VC20"/>
-      <c r="VQ20"/>
-      <c r="WE20"/>
-      <c r="WS20"/>
-      <c r="XG20"/>
-      <c r="XU20"/>
-      <c r="YI20"/>
-      <c r="YW20"/>
-      <c r="ZK20"/>
-      <c r="ZY20"/>
-      <c r="AAM20"/>
-      <c r="ABA20"/>
-      <c r="ABO20"/>
-      <c r="ACC20"/>
-      <c r="ACQ20"/>
-      <c r="ADE20"/>
-      <c r="ADS20"/>
-      <c r="AEG20"/>
-      <c r="AEU20"/>
-      <c r="AFI20"/>
-      <c r="AFW20"/>
-      <c r="AGK20"/>
-      <c r="AGY20"/>
-      <c r="AHM20"/>
-      <c r="AIA20"/>
-      <c r="AIO20"/>
-      <c r="AJC20"/>
-      <c r="AJQ20"/>
-      <c r="AKE20"/>
-      <c r="AKS20"/>
-      <c r="ALG20"/>
-      <c r="ALU20"/>
-      <c r="AMI20"/>
-      <c r="AMW20"/>
-      <c r="ANK20"/>
-      <c r="ANY20"/>
-      <c r="AOM20"/>
-      <c r="APA20"/>
-      <c r="APO20"/>
-      <c r="AQC20"/>
-      <c r="AQQ20"/>
-      <c r="ARE20"/>
-      <c r="ARS20"/>
-      <c r="ASG20"/>
-      <c r="ASU20"/>
-      <c r="ATI20"/>
-      <c r="ATW20"/>
-      <c r="AUK20"/>
-      <c r="AUY20"/>
-      <c r="AVM20"/>
-      <c r="AWA20"/>
-      <c r="AWO20"/>
-      <c r="AXC20"/>
-      <c r="AXQ20"/>
-      <c r="AYE20"/>
-      <c r="AYS20"/>
-      <c r="AZG20"/>
-      <c r="AZU20"/>
-      <c r="BAI20"/>
-      <c r="BAW20"/>
-      <c r="BBK20"/>
-      <c r="BBY20"/>
-      <c r="BCM20"/>
-      <c r="BDA20"/>
-      <c r="BDO20"/>
-      <c r="BEC20"/>
-      <c r="BEQ20"/>
-      <c r="BFE20"/>
-      <c r="BFS20"/>
-      <c r="BGG20"/>
-      <c r="BGU20"/>
-      <c r="BHI20"/>
-      <c r="BHW20"/>
-      <c r="BIK20"/>
-      <c r="BIY20"/>
-      <c r="BJM20"/>
-      <c r="BKA20"/>
-      <c r="BKO20"/>
-      <c r="BLC20"/>
-      <c r="BLQ20"/>
-      <c r="BME20"/>
-      <c r="BMS20"/>
-      <c r="BNG20"/>
-      <c r="BNU20"/>
-      <c r="BOI20"/>
-      <c r="BOW20"/>
-      <c r="BPK20"/>
-      <c r="BPY20"/>
-      <c r="BQM20"/>
-      <c r="BRA20"/>
-      <c r="BRO20"/>
-      <c r="BSC20"/>
-      <c r="BSQ20"/>
-      <c r="BTE20"/>
-      <c r="BTS20"/>
-      <c r="BUG20"/>
-      <c r="BUU20"/>
-      <c r="BVI20"/>
-      <c r="BVW20"/>
-      <c r="BWK20"/>
-      <c r="BWY20"/>
-      <c r="BXM20"/>
-      <c r="BYA20"/>
-      <c r="BYO20"/>
-      <c r="BZC20"/>
-      <c r="BZQ20"/>
-      <c r="CAE20"/>
-      <c r="CAS20"/>
-      <c r="CBG20"/>
-      <c r="CBU20"/>
-      <c r="CCI20"/>
-      <c r="CCW20"/>
-      <c r="CDK20"/>
-      <c r="CDY20"/>
-      <c r="CEM20"/>
-      <c r="CFA20"/>
-      <c r="CFO20"/>
-      <c r="CGC20"/>
-      <c r="CGQ20"/>
-      <c r="CHE20"/>
-      <c r="CHS20"/>
-      <c r="CIG20"/>
-      <c r="CIU20"/>
-      <c r="CJI20"/>
-      <c r="CJW20"/>
-      <c r="CKK20"/>
-      <c r="CKY20"/>
-      <c r="CLM20"/>
-      <c r="CMA20"/>
-      <c r="CMO20"/>
-      <c r="CNC20"/>
-      <c r="CNQ20"/>
-      <c r="COE20"/>
-      <c r="COS20"/>
-      <c r="CPG20"/>
-      <c r="CPU20"/>
-      <c r="CQI20"/>
-      <c r="CQW20"/>
-      <c r="CRK20"/>
-      <c r="CRY20"/>
-      <c r="CSM20"/>
-      <c r="CTA20"/>
-      <c r="CTO20"/>
-      <c r="CUC20"/>
-      <c r="CUQ20"/>
-      <c r="CVE20"/>
-      <c r="CVS20"/>
-      <c r="CWG20"/>
-      <c r="CWU20"/>
-      <c r="CXI20"/>
-      <c r="CXW20"/>
-      <c r="CYK20"/>
-      <c r="CYY20"/>
-      <c r="CZM20"/>
-      <c r="DAA20"/>
-      <c r="DAO20"/>
-      <c r="DBC20"/>
-      <c r="DBQ20"/>
-      <c r="DCE20"/>
-      <c r="DCS20"/>
-      <c r="DDG20"/>
-      <c r="DDU20"/>
-      <c r="DEI20"/>
-      <c r="DEW20"/>
-      <c r="DFK20"/>
-      <c r="DFY20"/>
-      <c r="DGM20"/>
-      <c r="DHA20"/>
-      <c r="DHO20"/>
-      <c r="DIC20"/>
-      <c r="DIQ20"/>
-      <c r="DJE20"/>
-      <c r="DJS20"/>
-      <c r="DKG20"/>
-      <c r="DKU20"/>
-      <c r="DLI20"/>
-      <c r="DLW20"/>
-      <c r="DMK20"/>
-      <c r="DMY20"/>
-      <c r="DNM20"/>
-      <c r="DOA20"/>
-      <c r="DOO20"/>
-      <c r="DPC20"/>
-      <c r="DPQ20"/>
-      <c r="DQE20"/>
-      <c r="DQS20"/>
-      <c r="DRG20"/>
-      <c r="DRU20"/>
-      <c r="DSI20"/>
-      <c r="DSW20"/>
-      <c r="DTK20"/>
-      <c r="DTY20"/>
-      <c r="DUM20"/>
-      <c r="DVA20"/>
-      <c r="DVO20"/>
-      <c r="DWC20"/>
-      <c r="DWQ20"/>
-      <c r="DXE20"/>
-      <c r="DXS20"/>
-      <c r="DYG20"/>
-      <c r="DYU20"/>
-      <c r="DZI20"/>
-      <c r="DZW20"/>
-      <c r="EAK20"/>
-      <c r="EAY20"/>
-      <c r="EBM20"/>
-      <c r="ECA20"/>
-      <c r="ECO20"/>
-      <c r="EDC20"/>
-      <c r="EDQ20"/>
-      <c r="EEE20"/>
-      <c r="EES20"/>
-      <c r="EFG20"/>
-      <c r="EFU20"/>
-      <c r="EGI20"/>
-      <c r="EGW20"/>
-      <c r="EHK20"/>
-      <c r="EHY20"/>
-      <c r="EIM20"/>
-      <c r="EJA20"/>
-      <c r="EJO20"/>
-      <c r="EKC20"/>
-      <c r="EKQ20"/>
-      <c r="ELE20"/>
-      <c r="ELS20"/>
-      <c r="EMG20"/>
-      <c r="EMU20"/>
-      <c r="ENI20"/>
-      <c r="ENW20"/>
-      <c r="EOK20"/>
-      <c r="EOY20"/>
-      <c r="EPM20"/>
-      <c r="EQA20"/>
-      <c r="EQO20"/>
-      <c r="ERC20"/>
-      <c r="ERQ20"/>
-      <c r="ESE20"/>
-      <c r="ESS20"/>
-      <c r="ETG20"/>
-      <c r="ETU20"/>
-      <c r="EUI20"/>
-      <c r="EUW20"/>
-      <c r="EVK20"/>
-      <c r="EVY20"/>
-      <c r="EWM20"/>
-      <c r="EXA20"/>
-      <c r="EXO20"/>
-      <c r="EYC20"/>
-      <c r="EYQ20"/>
-      <c r="EZE20"/>
-      <c r="EZS20"/>
-      <c r="FAG20"/>
-      <c r="FAU20"/>
-      <c r="FBI20"/>
-      <c r="FBW20"/>
-      <c r="FCK20"/>
-      <c r="FCY20"/>
-      <c r="FDM20"/>
-      <c r="FEA20"/>
-      <c r="FEO20"/>
-      <c r="FFC20"/>
-      <c r="FFQ20"/>
-      <c r="FGE20"/>
-      <c r="FGS20"/>
-      <c r="FHG20"/>
-      <c r="FHU20"/>
-      <c r="FII20"/>
-      <c r="FIW20"/>
-      <c r="FJK20"/>
-      <c r="FJY20"/>
-      <c r="FKM20"/>
-      <c r="FLA20"/>
-      <c r="FLO20"/>
-      <c r="FMC20"/>
-      <c r="FMQ20"/>
-      <c r="FNE20"/>
-      <c r="FNS20"/>
-      <c r="FOG20"/>
-      <c r="FOU20"/>
-      <c r="FPI20"/>
-      <c r="FPW20"/>
-      <c r="FQK20"/>
-      <c r="FQY20"/>
-      <c r="FRM20"/>
-      <c r="FSA20"/>
-      <c r="FSO20"/>
-      <c r="FTC20"/>
-      <c r="FTQ20"/>
-      <c r="FUE20"/>
-      <c r="FUS20"/>
-      <c r="FVG20"/>
-      <c r="FVU20"/>
-      <c r="FWI20"/>
-      <c r="FWW20"/>
-      <c r="FXK20"/>
-      <c r="FXY20"/>
-      <c r="FYM20"/>
-      <c r="FZA20"/>
-      <c r="FZO20"/>
-      <c r="GAC20"/>
-      <c r="GAQ20"/>
-      <c r="GBE20"/>
-      <c r="GBS20"/>
-      <c r="GCG20"/>
-      <c r="GCU20"/>
-      <c r="GDI20"/>
-      <c r="GDW20"/>
-      <c r="GEK20"/>
-      <c r="GEY20"/>
-      <c r="GFM20"/>
-      <c r="GGA20"/>
-      <c r="GGO20"/>
-      <c r="GHC20"/>
-      <c r="GHQ20"/>
-      <c r="GIE20"/>
-      <c r="GIS20"/>
-      <c r="GJG20"/>
-      <c r="GJU20"/>
-      <c r="GKI20"/>
-      <c r="GKW20"/>
-      <c r="GLK20"/>
-      <c r="GLY20"/>
-      <c r="GMM20"/>
-      <c r="GNA20"/>
-      <c r="GNO20"/>
-      <c r="GOC20"/>
-      <c r="GOQ20"/>
-      <c r="GPE20"/>
-      <c r="GPS20"/>
-      <c r="GQG20"/>
-      <c r="GQU20"/>
-      <c r="GRI20"/>
-      <c r="GRW20"/>
-      <c r="GSK20"/>
-      <c r="GSY20"/>
-      <c r="GTM20"/>
-      <c r="GUA20"/>
-      <c r="GUO20"/>
-      <c r="GVC20"/>
-      <c r="GVQ20"/>
-      <c r="GWE20"/>
-      <c r="GWS20"/>
-      <c r="GXG20"/>
-      <c r="GXU20"/>
-      <c r="GYI20"/>
-      <c r="GYW20"/>
-      <c r="GZK20"/>
-      <c r="GZY20"/>
-      <c r="HAM20"/>
-      <c r="HBA20"/>
-      <c r="HBO20"/>
-      <c r="HCC20"/>
-      <c r="HCQ20"/>
-      <c r="HDE20"/>
-      <c r="HDS20"/>
-      <c r="HEG20"/>
-      <c r="HEU20"/>
-      <c r="HFI20"/>
-      <c r="HFW20"/>
-      <c r="HGK20"/>
-      <c r="HGY20"/>
-      <c r="HHM20"/>
-      <c r="HIA20"/>
-      <c r="HIO20"/>
-      <c r="HJC20"/>
-      <c r="HJQ20"/>
-      <c r="HKE20"/>
-      <c r="HKS20"/>
-      <c r="HLG20"/>
-      <c r="HLU20"/>
-      <c r="HMI20"/>
-      <c r="HMW20"/>
-      <c r="HNK20"/>
-      <c r="HNY20"/>
-      <c r="HOM20"/>
-      <c r="HPA20"/>
-      <c r="HPO20"/>
-      <c r="HQC20"/>
-      <c r="HQQ20"/>
-      <c r="HRE20"/>
-      <c r="HRS20"/>
-      <c r="HSG20"/>
-      <c r="HSU20"/>
-      <c r="HTI20"/>
-      <c r="HTW20"/>
-      <c r="HUK20"/>
-      <c r="HUY20"/>
-      <c r="HVM20"/>
-      <c r="HWA20"/>
-      <c r="HWO20"/>
-      <c r="HXC20"/>
-      <c r="HXQ20"/>
-      <c r="HYE20"/>
-      <c r="HYS20"/>
-      <c r="HZG20"/>
-      <c r="HZU20"/>
-      <c r="IAI20"/>
-      <c r="IAW20"/>
-      <c r="IBK20"/>
-      <c r="IBY20"/>
-      <c r="ICM20"/>
-      <c r="IDA20"/>
-      <c r="IDO20"/>
-      <c r="IEC20"/>
-      <c r="IEQ20"/>
-      <c r="IFE20"/>
-      <c r="IFS20"/>
-      <c r="IGG20"/>
-      <c r="IGU20"/>
-      <c r="IHI20"/>
-      <c r="IHW20"/>
-      <c r="IIK20"/>
-      <c r="IIY20"/>
-      <c r="IJM20"/>
-      <c r="IKA20"/>
-      <c r="IKO20"/>
-      <c r="ILC20"/>
-      <c r="ILQ20"/>
-      <c r="IME20"/>
-      <c r="IMS20"/>
-      <c r="ING20"/>
-      <c r="INU20"/>
-      <c r="IOI20"/>
-      <c r="IOW20"/>
-      <c r="IPK20"/>
-      <c r="IPY20"/>
-      <c r="IQM20"/>
-      <c r="IRA20"/>
-      <c r="IRO20"/>
-      <c r="ISC20"/>
-      <c r="ISQ20"/>
-      <c r="ITE20"/>
-      <c r="ITS20"/>
-      <c r="IUG20"/>
-      <c r="IUU20"/>
-      <c r="IVI20"/>
-      <c r="IVW20"/>
-      <c r="IWK20"/>
-      <c r="IWY20"/>
-      <c r="IXM20"/>
-      <c r="IYA20"/>
-      <c r="IYO20"/>
-      <c r="IZC20"/>
-      <c r="IZQ20"/>
-      <c r="JAE20"/>
-      <c r="JAS20"/>
-      <c r="JBG20"/>
-      <c r="JBU20"/>
-      <c r="JCI20"/>
-      <c r="JCW20"/>
-      <c r="JDK20"/>
-      <c r="JDY20"/>
-      <c r="JEM20"/>
-      <c r="JFA20"/>
-      <c r="JFO20"/>
-      <c r="JGC20"/>
-      <c r="JGQ20"/>
-      <c r="JHE20"/>
-      <c r="JHS20"/>
-      <c r="JIG20"/>
-      <c r="JIU20"/>
-      <c r="JJI20"/>
-      <c r="JJW20"/>
-      <c r="JKK20"/>
-      <c r="JKY20"/>
-      <c r="JLM20"/>
-      <c r="JMA20"/>
-      <c r="JMO20"/>
-      <c r="JNC20"/>
-      <c r="JNQ20"/>
-      <c r="JOE20"/>
-      <c r="JOS20"/>
-      <c r="JPG20"/>
-      <c r="JPU20"/>
-      <c r="JQI20"/>
-      <c r="JQW20"/>
-      <c r="JRK20"/>
-      <c r="JRY20"/>
-      <c r="JSM20"/>
-      <c r="JTA20"/>
-      <c r="JTO20"/>
-      <c r="JUC20"/>
-      <c r="JUQ20"/>
-      <c r="JVE20"/>
-      <c r="JVS20"/>
-      <c r="JWG20"/>
-      <c r="JWU20"/>
-      <c r="JXI20"/>
-      <c r="JXW20"/>
-      <c r="JYK20"/>
-      <c r="JYY20"/>
-      <c r="JZM20"/>
-      <c r="KAA20"/>
-      <c r="KAO20"/>
-      <c r="KBC20"/>
-      <c r="KBQ20"/>
-      <c r="KCE20"/>
-      <c r="KCS20"/>
-      <c r="KDG20"/>
-      <c r="KDU20"/>
-      <c r="KEI20"/>
-      <c r="KEW20"/>
-      <c r="KFK20"/>
-      <c r="KFY20"/>
-      <c r="KGM20"/>
-      <c r="KHA20"/>
-      <c r="KHO20"/>
-      <c r="KIC20"/>
-      <c r="KIQ20"/>
-      <c r="KJE20"/>
-      <c r="KJS20"/>
-      <c r="KKG20"/>
-      <c r="KKU20"/>
-      <c r="KLI20"/>
-      <c r="KLW20"/>
-      <c r="KMK20"/>
-      <c r="KMY20"/>
-      <c r="KNM20"/>
-      <c r="KOA20"/>
-      <c r="KOO20"/>
-      <c r="KPC20"/>
-      <c r="KPQ20"/>
-      <c r="KQE20"/>
-      <c r="KQS20"/>
-      <c r="KRG20"/>
-      <c r="KRU20"/>
-      <c r="KSI20"/>
-      <c r="KSW20"/>
-      <c r="KTK20"/>
-      <c r="KTY20"/>
-      <c r="KUM20"/>
-      <c r="KVA20"/>
-      <c r="KVO20"/>
-      <c r="KWC20"/>
-      <c r="KWQ20"/>
-      <c r="KXE20"/>
-      <c r="KXS20"/>
-      <c r="KYG20"/>
-      <c r="KYU20"/>
-      <c r="KZI20"/>
-      <c r="KZW20"/>
-      <c r="LAK20"/>
-      <c r="LAY20"/>
-      <c r="LBM20"/>
-      <c r="LCA20"/>
-      <c r="LCO20"/>
-      <c r="LDC20"/>
-      <c r="LDQ20"/>
-      <c r="LEE20"/>
-      <c r="LES20"/>
-      <c r="LFG20"/>
-      <c r="LFU20"/>
-      <c r="LGI20"/>
-      <c r="LGW20"/>
-      <c r="LHK20"/>
-      <c r="LHY20"/>
-      <c r="LIM20"/>
-      <c r="LJA20"/>
-      <c r="LJO20"/>
-      <c r="LKC20"/>
-      <c r="LKQ20"/>
-      <c r="LLE20"/>
-      <c r="LLS20"/>
-      <c r="LMG20"/>
-      <c r="LMU20"/>
-      <c r="LNI20"/>
-      <c r="LNW20"/>
-      <c r="LOK20"/>
-      <c r="LOY20"/>
-      <c r="LPM20"/>
-      <c r="LQA20"/>
-      <c r="LQO20"/>
-      <c r="LRC20"/>
-      <c r="LRQ20"/>
-      <c r="LSE20"/>
-      <c r="LSS20"/>
-      <c r="LTG20"/>
-      <c r="LTU20"/>
-      <c r="LUI20"/>
-      <c r="LUW20"/>
-      <c r="LVK20"/>
-      <c r="LVY20"/>
-      <c r="LWM20"/>
-      <c r="LXA20"/>
-      <c r="LXO20"/>
-      <c r="LYC20"/>
-      <c r="LYQ20"/>
-      <c r="LZE20"/>
-      <c r="LZS20"/>
-      <c r="MAG20"/>
-      <c r="MAU20"/>
-      <c r="MBI20"/>
-      <c r="MBW20"/>
-      <c r="MCK20"/>
-      <c r="MCY20"/>
-      <c r="MDM20"/>
-      <c r="MEA20"/>
-      <c r="MEO20"/>
-      <c r="MFC20"/>
-      <c r="MFQ20"/>
-      <c r="MGE20"/>
-      <c r="MGS20"/>
-      <c r="MHG20"/>
-      <c r="MHU20"/>
-      <c r="MII20"/>
-      <c r="MIW20"/>
-      <c r="MJK20"/>
-      <c r="MJY20"/>
-      <c r="MKM20"/>
-      <c r="MLA20"/>
-      <c r="MLO20"/>
-      <c r="MMC20"/>
-      <c r="MMQ20"/>
-      <c r="MNE20"/>
-      <c r="MNS20"/>
-      <c r="MOG20"/>
-      <c r="MOU20"/>
-      <c r="MPI20"/>
-      <c r="MPW20"/>
-      <c r="MQK20"/>
-      <c r="MQY20"/>
-      <c r="MRM20"/>
-      <c r="MSA20"/>
-      <c r="MSO20"/>
-      <c r="MTC20"/>
-      <c r="MTQ20"/>
-      <c r="MUE20"/>
-      <c r="MUS20"/>
-      <c r="MVG20"/>
-      <c r="MVU20"/>
-      <c r="MWI20"/>
-      <c r="MWW20"/>
-      <c r="MXK20"/>
-      <c r="MXY20"/>
-      <c r="MYM20"/>
-      <c r="MZA20"/>
-      <c r="MZO20"/>
-      <c r="NAC20"/>
-      <c r="NAQ20"/>
-      <c r="NBE20"/>
-      <c r="NBS20"/>
-      <c r="NCG20"/>
-      <c r="NCU20"/>
-      <c r="NDI20"/>
-      <c r="NDW20"/>
-      <c r="NEK20"/>
-      <c r="NEY20"/>
-      <c r="NFM20"/>
-      <c r="NGA20"/>
-      <c r="NGO20"/>
-      <c r="NHC20"/>
-      <c r="NHQ20"/>
-      <c r="NIE20"/>
-      <c r="NIS20"/>
-      <c r="NJG20"/>
-      <c r="NJU20"/>
-      <c r="NKI20"/>
-      <c r="NKW20"/>
-      <c r="NLK20"/>
-      <c r="NLY20"/>
-      <c r="NMM20"/>
-      <c r="NNA20"/>
-      <c r="NNO20"/>
-      <c r="NOC20"/>
-      <c r="NOQ20"/>
-      <c r="NPE20"/>
-      <c r="NPS20"/>
-      <c r="NQG20"/>
-      <c r="NQU20"/>
-      <c r="NRI20"/>
-      <c r="NRW20"/>
-      <c r="NSK20"/>
-      <c r="NSY20"/>
-      <c r="NTM20"/>
-      <c r="NUA20"/>
-      <c r="NUO20"/>
-      <c r="NVC20"/>
-      <c r="NVQ20"/>
-      <c r="NWE20"/>
-      <c r="NWS20"/>
-      <c r="NXG20"/>
-      <c r="NXU20"/>
-      <c r="NYI20"/>
-      <c r="NYW20"/>
-      <c r="NZK20"/>
-      <c r="NZY20"/>
-      <c r="OAM20"/>
-      <c r="OBA20"/>
-      <c r="OBO20"/>
-      <c r="OCC20"/>
-      <c r="OCQ20"/>
-      <c r="ODE20"/>
-      <c r="ODS20"/>
-      <c r="OEG20"/>
-      <c r="OEU20"/>
-      <c r="OFI20"/>
-      <c r="OFW20"/>
-      <c r="OGK20"/>
-      <c r="OGY20"/>
-      <c r="OHM20"/>
-      <c r="OIA20"/>
-      <c r="OIO20"/>
-      <c r="OJC20"/>
-      <c r="OJQ20"/>
-      <c r="OKE20"/>
-      <c r="OKS20"/>
-      <c r="OLG20"/>
-      <c r="OLU20"/>
-      <c r="OMI20"/>
-      <c r="OMW20"/>
-      <c r="ONK20"/>
-      <c r="ONY20"/>
-      <c r="OOM20"/>
-      <c r="OPA20"/>
-      <c r="OPO20"/>
-      <c r="OQC20"/>
-      <c r="OQQ20"/>
-      <c r="ORE20"/>
-      <c r="ORS20"/>
-      <c r="OSG20"/>
-      <c r="OSU20"/>
-      <c r="OTI20"/>
-      <c r="OTW20"/>
-      <c r="OUK20"/>
-      <c r="OUY20"/>
-      <c r="OVM20"/>
-      <c r="OWA20"/>
-      <c r="OWO20"/>
-      <c r="OXC20"/>
-      <c r="OXQ20"/>
-      <c r="OYE20"/>
-      <c r="OYS20"/>
-      <c r="OZG20"/>
-      <c r="OZU20"/>
-      <c r="PAI20"/>
-      <c r="PAW20"/>
-      <c r="PBK20"/>
-      <c r="PBY20"/>
-      <c r="PCM20"/>
-      <c r="PDA20"/>
-      <c r="PDO20"/>
-      <c r="PEC20"/>
-      <c r="PEQ20"/>
-      <c r="PFE20"/>
-      <c r="PFS20"/>
-      <c r="PGG20"/>
-      <c r="PGU20"/>
-      <c r="PHI20"/>
-      <c r="PHW20"/>
-      <c r="PIK20"/>
-      <c r="PIY20"/>
-      <c r="PJM20"/>
-      <c r="PKA20"/>
-      <c r="PKO20"/>
-      <c r="PLC20"/>
-      <c r="PLQ20"/>
-      <c r="PME20"/>
-      <c r="PMS20"/>
-      <c r="PNG20"/>
-      <c r="PNU20"/>
-      <c r="POI20"/>
-      <c r="POW20"/>
-      <c r="PPK20"/>
-      <c r="PPY20"/>
-      <c r="PQM20"/>
-      <c r="PRA20"/>
-      <c r="PRO20"/>
-      <c r="PSC20"/>
-      <c r="PSQ20"/>
-      <c r="PTE20"/>
-      <c r="PTS20"/>
-      <c r="PUG20"/>
-      <c r="PUU20"/>
-      <c r="PVI20"/>
-      <c r="PVW20"/>
-      <c r="PWK20"/>
-      <c r="PWY20"/>
-      <c r="PXM20"/>
-      <c r="PYA20"/>
-      <c r="PYO20"/>
-      <c r="PZC20"/>
-      <c r="PZQ20"/>
-      <c r="QAE20"/>
-      <c r="QAS20"/>
-      <c r="QBG20"/>
-      <c r="QBU20"/>
-      <c r="QCI20"/>
-      <c r="QCW20"/>
-      <c r="QDK20"/>
-      <c r="QDY20"/>
-      <c r="QEM20"/>
-      <c r="QFA20"/>
-      <c r="QFO20"/>
-      <c r="QGC20"/>
-      <c r="QGQ20"/>
-      <c r="QHE20"/>
-      <c r="QHS20"/>
-      <c r="QIG20"/>
-      <c r="QIU20"/>
-      <c r="QJI20"/>
-      <c r="QJW20"/>
-      <c r="QKK20"/>
-      <c r="QKY20"/>
-      <c r="QLM20"/>
-      <c r="QMA20"/>
-      <c r="QMO20"/>
-      <c r="QNC20"/>
-      <c r="QNQ20"/>
-      <c r="QOE20"/>
-      <c r="QOS20"/>
-      <c r="QPG20"/>
-      <c r="QPU20"/>
-      <c r="QQI20"/>
-      <c r="QQW20"/>
-      <c r="QRK20"/>
-      <c r="QRY20"/>
-      <c r="QSM20"/>
-      <c r="QTA20"/>
-      <c r="QTO20"/>
-      <c r="QUC20"/>
-      <c r="QUQ20"/>
-      <c r="QVE20"/>
-      <c r="QVS20"/>
-      <c r="QWG20"/>
-      <c r="QWU20"/>
-      <c r="QXI20"/>
-      <c r="QXW20"/>
-      <c r="QYK20"/>
-      <c r="QYY20"/>
-      <c r="QZM20"/>
-      <c r="RAA20"/>
-      <c r="RAO20"/>
-      <c r="RBC20"/>
-      <c r="RBQ20"/>
-      <c r="RCE20"/>
-      <c r="RCS20"/>
-      <c r="RDG20"/>
-      <c r="RDU20"/>
-      <c r="REI20"/>
-      <c r="REW20"/>
-      <c r="RFK20"/>
-      <c r="RFY20"/>
-      <c r="RGM20"/>
-      <c r="RHA20"/>
-      <c r="RHO20"/>
-      <c r="RIC20"/>
-      <c r="RIQ20"/>
-      <c r="RJE20"/>
-      <c r="RJS20"/>
-      <c r="RKG20"/>
-      <c r="RKU20"/>
-      <c r="RLI20"/>
-      <c r="RLW20"/>
-      <c r="RMK20"/>
-      <c r="RMY20"/>
-      <c r="RNM20"/>
-      <c r="ROA20"/>
-      <c r="ROO20"/>
-      <c r="RPC20"/>
-      <c r="RPQ20"/>
-      <c r="RQE20"/>
-      <c r="RQS20"/>
-      <c r="RRG20"/>
-      <c r="RRU20"/>
-      <c r="RSI20"/>
-      <c r="RSW20"/>
-      <c r="RTK20"/>
-      <c r="RTY20"/>
-      <c r="RUM20"/>
-      <c r="RVA20"/>
-      <c r="RVO20"/>
-      <c r="RWC20"/>
-      <c r="RWQ20"/>
-      <c r="RXE20"/>
-      <c r="RXS20"/>
-      <c r="RYG20"/>
-      <c r="RYU20"/>
-      <c r="RZI20"/>
-      <c r="RZW20"/>
-      <c r="SAK20"/>
-      <c r="SAY20"/>
-      <c r="SBM20"/>
-      <c r="SCA20"/>
-      <c r="SCO20"/>
-      <c r="SDC20"/>
-      <c r="SDQ20"/>
-      <c r="SEE20"/>
-      <c r="SES20"/>
-      <c r="SFG20"/>
-      <c r="SFU20"/>
-      <c r="SGI20"/>
-      <c r="SGW20"/>
-      <c r="SHK20"/>
-      <c r="SHY20"/>
-      <c r="SIM20"/>
-      <c r="SJA20"/>
-      <c r="SJO20"/>
-      <c r="SKC20"/>
-      <c r="SKQ20"/>
-      <c r="SLE20"/>
-      <c r="SLS20"/>
-      <c r="SMG20"/>
-      <c r="SMU20"/>
-      <c r="SNI20"/>
-      <c r="SNW20"/>
-      <c r="SOK20"/>
-      <c r="SOY20"/>
-      <c r="SPM20"/>
-      <c r="SQA20"/>
-      <c r="SQO20"/>
-      <c r="SRC20"/>
-      <c r="SRQ20"/>
-      <c r="SSE20"/>
-      <c r="SSS20"/>
-      <c r="STG20"/>
-      <c r="STU20"/>
-      <c r="SUI20"/>
-      <c r="SUW20"/>
-      <c r="SVK20"/>
-      <c r="SVY20"/>
-      <c r="SWM20"/>
-      <c r="SXA20"/>
-      <c r="SXO20"/>
-      <c r="SYC20"/>
-      <c r="SYQ20"/>
-      <c r="SZE20"/>
-      <c r="SZS20"/>
-      <c r="TAG20"/>
-      <c r="TAU20"/>
-      <c r="TBI20"/>
-      <c r="TBW20"/>
-      <c r="TCK20"/>
-      <c r="TCY20"/>
-      <c r="TDM20"/>
-      <c r="TEA20"/>
-      <c r="TEO20"/>
-      <c r="TFC20"/>
-      <c r="TFQ20"/>
-      <c r="TGE20"/>
-      <c r="TGS20"/>
-      <c r="THG20"/>
-      <c r="THU20"/>
-      <c r="TII20"/>
-      <c r="TIW20"/>
-      <c r="TJK20"/>
-      <c r="TJY20"/>
-      <c r="TKM20"/>
-      <c r="TLA20"/>
-      <c r="TLO20"/>
-      <c r="TMC20"/>
-      <c r="TMQ20"/>
-      <c r="TNE20"/>
-      <c r="TNS20"/>
-      <c r="TOG20"/>
-      <c r="TOU20"/>
-      <c r="TPI20"/>
-      <c r="TPW20"/>
-      <c r="TQK20"/>
-      <c r="TQY20"/>
-      <c r="TRM20"/>
-      <c r="TSA20"/>
-      <c r="TSO20"/>
-      <c r="TTC20"/>
-      <c r="TTQ20"/>
-      <c r="TUE20"/>
-      <c r="TUS20"/>
-      <c r="TVG20"/>
-      <c r="TVU20"/>
-      <c r="TWI20"/>
-      <c r="TWW20"/>
-      <c r="TXK20"/>
-      <c r="TXY20"/>
-      <c r="TYM20"/>
-      <c r="TZA20"/>
-      <c r="TZO20"/>
-      <c r="UAC20"/>
-      <c r="UAQ20"/>
-      <c r="UBE20"/>
-      <c r="UBS20"/>
-      <c r="UCG20"/>
-      <c r="UCU20"/>
-      <c r="UDI20"/>
-      <c r="UDW20"/>
-      <c r="UEK20"/>
-      <c r="UEY20"/>
-      <c r="UFM20"/>
-      <c r="UGA20"/>
-      <c r="UGO20"/>
-      <c r="UHC20"/>
-      <c r="UHQ20"/>
-      <c r="UIE20"/>
-      <c r="UIS20"/>
-      <c r="UJG20"/>
-      <c r="UJU20"/>
-      <c r="UKI20"/>
-      <c r="UKW20"/>
-      <c r="ULK20"/>
-      <c r="ULY20"/>
-      <c r="UMM20"/>
-      <c r="UNA20"/>
-      <c r="UNO20"/>
-      <c r="UOC20"/>
-      <c r="UOQ20"/>
-      <c r="UPE20"/>
-      <c r="UPS20"/>
-      <c r="UQG20"/>
-      <c r="UQU20"/>
-      <c r="URI20"/>
-      <c r="URW20"/>
-      <c r="USK20"/>
-      <c r="USY20"/>
-      <c r="UTM20"/>
-      <c r="UUA20"/>
-      <c r="UUO20"/>
-      <c r="UVC20"/>
-      <c r="UVQ20"/>
-      <c r="UWE20"/>
-      <c r="UWS20"/>
-      <c r="UXG20"/>
-      <c r="UXU20"/>
-      <c r="UYI20"/>
-      <c r="UYW20"/>
-      <c r="UZK20"/>
-      <c r="UZY20"/>
-      <c r="VAM20"/>
-      <c r="VBA20"/>
-      <c r="VBO20"/>
-      <c r="VCC20"/>
-      <c r="VCQ20"/>
-      <c r="VDE20"/>
-      <c r="VDS20"/>
-      <c r="VEG20"/>
-      <c r="VEU20"/>
-      <c r="VFI20"/>
-      <c r="VFW20"/>
-      <c r="VGK20"/>
-      <c r="VGY20"/>
-      <c r="VHM20"/>
-      <c r="VIA20"/>
-      <c r="VIO20"/>
-      <c r="VJC20"/>
-      <c r="VJQ20"/>
-      <c r="VKE20"/>
-      <c r="VKS20"/>
-      <c r="VLG20"/>
-      <c r="VLU20"/>
-      <c r="VMI20"/>
-      <c r="VMW20"/>
-      <c r="VNK20"/>
-      <c r="VNY20"/>
-      <c r="VOM20"/>
-      <c r="VPA20"/>
-      <c r="VPO20"/>
-      <c r="VQC20"/>
-      <c r="VQQ20"/>
-      <c r="VRE20"/>
-      <c r="VRS20"/>
-      <c r="VSG20"/>
-      <c r="VSU20"/>
-      <c r="VTI20"/>
-      <c r="VTW20"/>
-      <c r="VUK20"/>
-      <c r="VUY20"/>
-      <c r="VVM20"/>
-      <c r="VWA20"/>
-      <c r="VWO20"/>
-      <c r="VXC20"/>
-      <c r="VXQ20"/>
-      <c r="VYE20"/>
-      <c r="VYS20"/>
-      <c r="VZG20"/>
-      <c r="VZU20"/>
-      <c r="WAI20"/>
-      <c r="WAW20"/>
-      <c r="WBK20"/>
-      <c r="WBY20"/>
-      <c r="WCM20"/>
-      <c r="WDA20"/>
-      <c r="WDO20"/>
-      <c r="WEC20"/>
-      <c r="WEQ20"/>
-      <c r="WFE20"/>
-      <c r="WFS20"/>
-      <c r="WGG20"/>
-      <c r="WGU20"/>
-      <c r="WHI20"/>
-      <c r="WHW20"/>
-      <c r="WIK20"/>
-      <c r="WIY20"/>
-      <c r="WJM20"/>
-      <c r="WKA20"/>
-      <c r="WKO20"/>
-      <c r="WLC20"/>
-      <c r="WLQ20"/>
-      <c r="WME20"/>
-      <c r="WMS20"/>
-      <c r="WNG20"/>
-      <c r="WNU20"/>
-      <c r="WOI20"/>
-      <c r="WOW20"/>
-      <c r="WPK20"/>
-      <c r="WPY20"/>
-      <c r="WQM20"/>
-      <c r="WRA20"/>
-      <c r="WRO20"/>
-      <c r="WSC20"/>
-      <c r="WSQ20"/>
-      <c r="WTE20"/>
-      <c r="WTS20"/>
-      <c r="WUG20"/>
-      <c r="WUU20"/>
-      <c r="WVI20"/>
-      <c r="WVW20"/>
-      <c r="WWK20"/>
-      <c r="WWY20"/>
-      <c r="WXM20"/>
-      <c r="WYA20"/>
-      <c r="WYO20"/>
-      <c r="WZC20"/>
-      <c r="WZQ20"/>
-      <c r="XAE20"/>
-      <c r="XAS20"/>
-      <c r="XBG20"/>
-      <c r="XBU20"/>
-      <c r="XCI20"/>
-      <c r="XCW20"/>
-      <c r="XDK20"/>
-      <c r="XDY20"/>
-      <c r="XEM20"/>
-      <c r="XFA20"/>
     </row>
-    <row r="21" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="O21" s="1"/>
       <c r="AC21" s="1"/>
@@ -31838,7 +29523,7 @@
       <c r="XEM21" s="1"/>
       <c r="XFA21" s="1"/>
     </row>
-    <row r="22" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -33013,7 +30698,7 @@
       <c r="XEM22" s="1"/>
       <c r="XFA22" s="1"/>
     </row>
-    <row r="23" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -34227,7 +31912,7 @@
       <c r="XEM23" s="1"/>
       <c r="XFA23" s="1"/>
     </row>
-    <row r="24" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -35441,7 +33126,7 @@
       <c r="XEM24" s="1"/>
       <c r="XFA24" s="1"/>
     </row>
-    <row r="25" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -36655,7 +34340,7 @@
       <c r="XEM25" s="1"/>
       <c r="XFA25" s="1"/>
     </row>
-    <row r="26" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -37869,7 +35554,7 @@
       <c r="XEM26" s="1"/>
       <c r="XFA26" s="1"/>
     </row>
-    <row r="27" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -39083,7 +36768,7 @@
       <c r="XEM27" s="1"/>
       <c r="XFA27" s="1"/>
     </row>
-    <row r="28" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="O28" s="1"/>
       <c r="AC28" s="1"/>
@@ -40256,7 +37941,7 @@
       <c r="XEM28" s="1"/>
       <c r="XFA28" s="1"/>
     </row>
-    <row r="29" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -41431,7 +39116,7 @@
       <c r="XEM29" s="1"/>
       <c r="XFA29" s="1"/>
     </row>
-    <row r="30" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -42645,7 +40330,7 @@
       <c r="XEM30" s="1"/>
       <c r="XFA30" s="1"/>
     </row>
-    <row r="31" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -43859,7 +41544,7 @@
       <c r="XEM31" s="1"/>
       <c r="XFA31" s="1"/>
     </row>
-    <row r="32" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -45073,7 +42758,7 @@
       <c r="XEM32" s="1"/>
       <c r="XFA32" s="1"/>
     </row>
-    <row r="33" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -46287,7 +43972,7 @@
       <c r="XEM33" s="1"/>
       <c r="XFA33" s="1"/>
     </row>
-    <row r="34" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="O34" s="1"/>
       <c r="AC34" s="1"/>
